--- a/biology/Médecine/Olécrane/Olécrane.xlsx
+++ b/biology/Médecine/Olécrane/Olécrane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ol%C3%A9crane</t>
+          <t>Olécrane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’olécrane ou olécrâne est le processus osseux qui prolonge verticalement l'épiphyse proximale de l'ulna.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ol%C3%A9crane</t>
+          <t>Olécrane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot « olécrâne » vient du grec (ὠλέκρανον) olene, qui signifie coude, et kranon, qui signifie tête[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot « olécrâne » vient du grec (ὠλέκρανον) olene, qui signifie coude, et kranon, qui signifie tête.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ol%C3%A9crane</t>
+          <t>Olécrane</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'olécrane est une grande éminence verticale, épaisse et incurvée, située à la partie supérieure et postérieure de l'ulna. Il est recourbé en avant au sommet de manière à présenter une lèvre proéminente qui vient se loger dans la fosse de l'olécrane de l'humérus lors de l'extension de l'avant-bras.
 Sa base est resserrée à sa jonction avec la diaphyse.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ol%C3%A9crane</t>
+          <t>Olécrane</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'olécrane sert de levier dans le mouvement d'extension de l'avant-bras par action des muscles triceps brachial et anconé. Il sert également de butée pour ce mouvement en allant se loger dans la fosse de l'olécrane de l'humérus.
 </t>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ol%C3%A9crane</t>
+          <t>Olécrane</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le troisième point d'ossification de l'ulna apparait près de l'extrémité de l'olécrane vers 10 ans. Son ossification rejoint celle de la diaphyse vers 16 ans.
 </t>
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ol%C3%A9crane</t>
+          <t>Olécrane</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,7 +661,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les fractures surviennent au cours d'un choc direct sur le coude ou bien au cours d'un traumatisme indirect, comme une luxation du coude.
 L'olécrane peut alors se déplacer, attiré par le tendon du muscle triceps brachial. L'extension du coude est impossible. Une douleur précise est ressentie à ce niveau et la palpation peut mobiliser le fragment.
